--- a/htdocs/App/Controllers/Traspasos/6521CWZ.xlsx
+++ b/htdocs/App/Controllers/Traspasos/6521CWZ.xlsx
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>2017-08-30 18:03:01</t>
+    <t>20-09-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Cristina</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-08-30</t>
+    <t>2017-09-20</t>
   </si>
   <si>
     <t>x</t>
@@ -94,7 +94,7 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>AUTOMOCIóN DESI</t>
+    <t>ROBERTO MALILLOS</t>
   </si>
   <si>
     <t>No disponible</t>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="72">
-        <v>691570704</v>
+        <v>609880565</v>
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
